--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H2">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I2">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J2">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3675875</v>
+        <v>0.8918855</v>
       </c>
       <c r="N2">
-        <v>0.735175</v>
+        <v>1.783771</v>
       </c>
       <c r="O2">
-        <v>0.0828918934338413</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P2">
-        <v>0.0683447967221643</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q2">
-        <v>1.103445477575</v>
+        <v>1.3695552928915</v>
       </c>
       <c r="R2">
-        <v>4.413781910300001</v>
+        <v>5.478221171566</v>
       </c>
       <c r="S2">
-        <v>0.01408759157197878</v>
+        <v>0.01235686078458907</v>
       </c>
       <c r="T2">
-        <v>0.008810106957692089</v>
+        <v>0.008204572885333467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H3">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I3">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J3">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.83195</v>
       </c>
       <c r="O3">
-        <v>0.2128705842010105</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P3">
-        <v>0.2632693536604661</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q3">
-        <v>2.833703921033333</v>
+        <v>1.449555319116667</v>
       </c>
       <c r="R3">
-        <v>17.0022235262</v>
+        <v>8.697331914700001</v>
       </c>
       <c r="S3">
-        <v>0.03617764926923548</v>
+        <v>0.01307866383405979</v>
       </c>
       <c r="T3">
-        <v>0.03393720188912314</v>
+        <v>0.01302574163534451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H4">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I4">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J4">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,95 +685,95 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1791815</v>
+        <v>3.7938645</v>
       </c>
       <c r="N4">
-        <v>4.358363</v>
+        <v>7.587729</v>
       </c>
       <c r="O4">
-        <v>0.4914108359805446</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P4">
-        <v>0.4051707869233885</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q4">
-        <v>6.541593419227</v>
+        <v>5.8257558918585</v>
       </c>
       <c r="R4">
-        <v>26.166373676908</v>
+        <v>23.303023567434</v>
       </c>
       <c r="S4">
-        <v>0.08351594908208812</v>
+        <v>0.05256308737174738</v>
       </c>
       <c r="T4">
-        <v>0.05222925723868163</v>
+        <v>0.03490026220555129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.001858</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H5">
-        <v>6.003716000000001</v>
+        <v>5.300461</v>
       </c>
       <c r="I5">
-        <v>0.1699513786981177</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J5">
-        <v>0.1289067695015173</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.5468423333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N5">
-        <v>1.640527</v>
+        <v>1.783771</v>
       </c>
       <c r="O5">
-        <v>0.123314303178916</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P5">
-        <v>0.1525099252997205</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q5">
-        <v>1.641543033055334</v>
+        <v>1.575801436405167</v>
       </c>
       <c r="R5">
-        <v>9.849258198332002</v>
+        <v>9.454808618431001</v>
       </c>
       <c r="S5">
-        <v>0.02095743583845445</v>
+        <v>0.01421772386619278</v>
       </c>
       <c r="T5">
-        <v>0.0196595617873047</v>
+        <v>0.01416019251457518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.001858</v>
+        <v>1.766820333333333</v>
       </c>
       <c r="H6">
-        <v>6.003716000000001</v>
+        <v>5.300461</v>
       </c>
       <c r="I6">
-        <v>0.1699513786981177</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J6">
-        <v>0.1289067695015173</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3969463333333333</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N6">
-        <v>1.190839</v>
+        <v>2.83195</v>
       </c>
       <c r="O6">
-        <v>0.08951238320568766</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P6">
-        <v>0.1107051373942604</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q6">
-        <v>1.191576526287333</v>
+        <v>1.667848947661111</v>
       </c>
       <c r="R6">
-        <v>7.149459157724</v>
+        <v>15.01064052895</v>
       </c>
       <c r="S6">
-        <v>0.01521275293636085</v>
+        <v>0.01504822577295129</v>
       </c>
       <c r="T6">
-        <v>0.01427064162871573</v>
+        <v>0.02248100075158257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>5.300461</v>
       </c>
       <c r="I7">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J7">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3675875</v>
+        <v>3.7938645</v>
       </c>
       <c r="N7">
-        <v>0.735175</v>
+        <v>7.587729</v>
       </c>
       <c r="O7">
-        <v>0.0828918934338413</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P7">
-        <v>0.0683447967221643</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q7">
-        <v>0.6494610692791667</v>
+        <v>6.7030769405115</v>
       </c>
       <c r="R7">
-        <v>3.896766415675</v>
+        <v>40.218461643069</v>
       </c>
       <c r="S7">
-        <v>0.008291612473697089</v>
+        <v>0.06047874738041099</v>
       </c>
       <c r="T7">
-        <v>0.007778120806359856</v>
+        <v>0.06023402297067563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.766820333333333</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H8">
-        <v>5.300461</v>
+        <v>12.225014</v>
       </c>
       <c r="I8">
-        <v>0.1000292324160129</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J8">
-        <v>0.113807066220118</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.9439833333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N8">
-        <v>2.83195</v>
+        <v>1.783771</v>
       </c>
       <c r="O8">
-        <v>0.2128705842010105</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P8">
-        <v>0.2632693536604661</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q8">
-        <v>1.667848947661111</v>
+        <v>3.634437574632333</v>
       </c>
       <c r="R8">
-        <v>15.01064052895</v>
+        <v>21.806625447794</v>
       </c>
       <c r="S8">
-        <v>0.02129328114157533</v>
+        <v>0.03279184080636399</v>
       </c>
       <c r="T8">
-        <v>0.02996191276576433</v>
+        <v>0.03265915016323614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.766820333333333</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H9">
-        <v>5.300461</v>
+        <v>12.225014</v>
       </c>
       <c r="I9">
-        <v>0.1000292324160129</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J9">
-        <v>0.113807066220118</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1791815</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N9">
-        <v>4.358363</v>
+        <v>2.83195</v>
       </c>
       <c r="O9">
-        <v>0.4914108359805446</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P9">
-        <v>0.4051707869233885</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q9">
-        <v>3.850222184223834</v>
+        <v>3.846736488588889</v>
       </c>
       <c r="R9">
-        <v>23.101333105343</v>
+        <v>34.6206283973</v>
       </c>
       <c r="S9">
-        <v>0.04915544872404511</v>
+        <v>0.03470731522210811</v>
       </c>
       <c r="T9">
-        <v>0.0461112985778474</v>
+        <v>0.05185031055263069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.766820333333333</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H10">
-        <v>5.300461</v>
+        <v>12.225014</v>
       </c>
       <c r="I10">
-        <v>0.1000292324160129</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J10">
-        <v>0.113807066220118</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5468423333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N10">
-        <v>1.640527</v>
+        <v>7.587729</v>
       </c>
       <c r="O10">
-        <v>0.123314303178916</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P10">
-        <v>0.1525099252997205</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q10">
-        <v>0.9661721536607778</v>
+        <v>15.460015542201</v>
       </c>
       <c r="R10">
-        <v>8.695549382947</v>
+        <v>92.76009325320599</v>
       </c>
       <c r="S10">
-        <v>0.01233503509290247</v>
+        <v>0.1394885338139433</v>
       </c>
       <c r="T10">
-        <v>0.01735670716781054</v>
+        <v>0.1389241000156083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.766820333333333</v>
+        <v>2.811664</v>
       </c>
       <c r="H11">
-        <v>5.300461</v>
+        <v>5.623328</v>
       </c>
       <c r="I11">
-        <v>0.1000292324160129</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J11">
-        <v>0.113807066220118</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.3969463333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N11">
-        <v>1.190839</v>
+        <v>1.783771</v>
       </c>
       <c r="O11">
-        <v>0.08951238320568766</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P11">
-        <v>0.1107051373942604</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q11">
-        <v>0.7013328529754445</v>
+        <v>2.507682352472</v>
       </c>
       <c r="R11">
-        <v>6.311995676779</v>
+        <v>10.030729409888</v>
       </c>
       <c r="S11">
-        <v>0.008953854983792945</v>
+        <v>0.02262565219695894</v>
       </c>
       <c r="T11">
-        <v>0.01259902690233586</v>
+        <v>0.01502273237225989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.723455</v>
+        <v>2.811664</v>
       </c>
       <c r="H12">
-        <v>8.170365</v>
+        <v>5.623328</v>
       </c>
       <c r="I12">
-        <v>0.1541894826711596</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J12">
-        <v>0.175427245025958</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3675875</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N12">
-        <v>0.735175</v>
+        <v>2.83195</v>
       </c>
       <c r="O12">
-        <v>0.0828918934338413</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P12">
-        <v>0.0683447967221643</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q12">
-        <v>1.0011080148125</v>
+        <v>2.654163954933333</v>
       </c>
       <c r="R12">
-        <v>6.006648088875</v>
+        <v>15.9249837296</v>
       </c>
       <c r="S12">
-        <v>0.01278105816619689</v>
+        <v>0.02394728760555694</v>
       </c>
       <c r="T12">
-        <v>0.01198953940082841</v>
+        <v>0.0238503860314028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.723455</v>
+        <v>2.811664</v>
       </c>
       <c r="H13">
-        <v>8.170365</v>
+        <v>5.623328</v>
       </c>
       <c r="I13">
-        <v>0.1541894826711596</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J13">
-        <v>0.175427245025958</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9439833333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N13">
-        <v>2.83195</v>
+        <v>7.587729</v>
       </c>
       <c r="O13">
-        <v>0.2128705842010105</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P13">
-        <v>0.2632693536604661</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q13">
-        <v>2.570896129083333</v>
+        <v>10.667072235528</v>
       </c>
       <c r="R13">
-        <v>23.13806516175</v>
+        <v>42.668288942112</v>
       </c>
       <c r="S13">
-        <v>0.03282240525386134</v>
+        <v>0.09624403430640989</v>
       </c>
       <c r="T13">
-        <v>0.04618461741242018</v>
+        <v>0.06390305822901884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.723455</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H14">
-        <v>8.170365</v>
+        <v>21.151071</v>
       </c>
       <c r="I14">
-        <v>0.1541894826711596</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J14">
-        <v>0.175427245025958</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.1791815</v>
+        <v>0.8918855</v>
       </c>
       <c r="N14">
-        <v>4.358363</v>
+        <v>1.783771</v>
       </c>
       <c r="O14">
-        <v>0.4914108359805446</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P14">
-        <v>0.4051707869233885</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q14">
-        <v>5.9349027520825</v>
+        <v>6.288111178123501</v>
       </c>
       <c r="R14">
-        <v>35.609416512495</v>
+        <v>37.728667068741</v>
       </c>
       <c r="S14">
-        <v>0.07577038257884225</v>
+        <v>0.0567347041987929</v>
       </c>
       <c r="T14">
-        <v>0.07107799491496949</v>
+        <v>0.05650512988388146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.723455</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H15">
-        <v>8.170365</v>
+        <v>21.151071</v>
       </c>
       <c r="I15">
-        <v>0.1541894826711596</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J15">
-        <v>0.175427245025958</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5468423333333333</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N15">
-        <v>1.640527</v>
+        <v>2.83195</v>
       </c>
       <c r="O15">
-        <v>0.123314303178916</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P15">
-        <v>0.1525099252997205</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q15">
-        <v>1.489300486928333</v>
+        <v>6.655419502050001</v>
       </c>
       <c r="R15">
-        <v>13.403704382355</v>
+        <v>59.89877551845</v>
       </c>
       <c r="S15">
-        <v>0.0190137686131116</v>
+        <v>0.06004875646622485</v>
       </c>
       <c r="T15">
-        <v>0.02675439603444462</v>
+        <v>0.08970865799178153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.723455</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H16">
-        <v>8.170365</v>
+        <v>21.151071</v>
       </c>
       <c r="I16">
-        <v>0.1541894826711596</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J16">
-        <v>0.175427245025958</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3969463333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N16">
-        <v>1.190839</v>
+        <v>7.587729</v>
       </c>
       <c r="O16">
-        <v>0.08951238320568766</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P16">
-        <v>0.1107051373942604</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q16">
-        <v>1.081065476248333</v>
+        <v>26.7480991346265</v>
       </c>
       <c r="R16">
-        <v>9.729589286235001</v>
+        <v>160.488594807759</v>
       </c>
       <c r="S16">
-        <v>0.01380186805914758</v>
+        <v>0.2413356649231335</v>
       </c>
       <c r="T16">
-        <v>0.01942069726329527</v>
+        <v>0.2403591114939609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.413168</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H17">
-        <v>6.826336</v>
+        <v>7.343294</v>
       </c>
       <c r="I17">
-        <v>0.1932378571299165</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J17">
-        <v>0.1465693782470572</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.3675875</v>
+        <v>0.8918855</v>
       </c>
       <c r="N17">
-        <v>0.735175</v>
+        <v>1.783771</v>
       </c>
       <c r="O17">
-        <v>0.0828918934338413</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P17">
-        <v>0.0683447967221643</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q17">
-        <v>1.2546378922</v>
+        <v>2.183125813612333</v>
       </c>
       <c r="R17">
-        <v>5.0185515688</v>
+        <v>13.098754881674</v>
       </c>
       <c r="S17">
-        <v>0.01601785186059689</v>
+        <v>0.01969732941347371</v>
       </c>
       <c r="T17">
-        <v>0.01001725436198914</v>
+        <v>0.01961762509546337</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.413168</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H18">
-        <v>6.826336</v>
+        <v>7.343294</v>
       </c>
       <c r="I18">
-        <v>0.1932378571299165</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J18">
-        <v>0.1465693782470572</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>2.83195</v>
       </c>
       <c r="O18">
-        <v>0.2128705842010105</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P18">
-        <v>0.2632693536604661</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q18">
-        <v>3.221973705866666</v>
+        <v>2.310649049255555</v>
       </c>
       <c r="R18">
-        <v>19.3318422352</v>
+        <v>20.7958414433</v>
       </c>
       <c r="S18">
-        <v>0.04113465553699672</v>
+        <v>0.02084791229086651</v>
       </c>
       <c r="T18">
-        <v>0.03858722547751914</v>
+        <v>0.03114532828995285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.413168</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H19">
-        <v>6.826336</v>
+        <v>7.343294</v>
       </c>
       <c r="I19">
-        <v>0.1932378571299165</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J19">
-        <v>0.1465693782470572</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.1791815</v>
+        <v>3.7938645</v>
       </c>
       <c r="N19">
-        <v>4.358363</v>
+        <v>7.587729</v>
       </c>
       <c r="O19">
-        <v>0.4914108359805446</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P19">
-        <v>0.4051707869233885</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q19">
-        <v>7.437912561991999</v>
+        <v>9.286487473220999</v>
       </c>
       <c r="R19">
-        <v>29.751650247968</v>
+        <v>55.718924839326</v>
       </c>
       <c r="S19">
-        <v>0.09495917691530129</v>
+        <v>0.08378765974621598</v>
       </c>
       <c r="T19">
-        <v>0.05938563032323196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.413168</v>
-      </c>
-      <c r="H20">
-        <v>6.826336</v>
-      </c>
-      <c r="I20">
-        <v>0.1932378571299165</v>
-      </c>
-      <c r="J20">
-        <v>0.1465693782470572</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N20">
-        <v>1.640527</v>
-      </c>
-      <c r="O20">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P20">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q20">
-        <v>1.866464753178666</v>
-      </c>
-      <c r="R20">
-        <v>11.198788519072</v>
-      </c>
-      <c r="S20">
-        <v>0.02382899169976258</v>
-      </c>
-      <c r="T20">
-        <v>0.02235328492768518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.413168</v>
-      </c>
-      <c r="H21">
-        <v>6.826336</v>
-      </c>
-      <c r="I21">
-        <v>0.1932378571299165</v>
-      </c>
-      <c r="J21">
-        <v>0.1465693782470572</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.190839</v>
-      </c>
-      <c r="O21">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P21">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q21">
-        <v>1.354844522650667</v>
-      </c>
-      <c r="R21">
-        <v>8.129067135904</v>
-      </c>
-      <c r="S21">
-        <v>0.01729718111725901</v>
-      </c>
-      <c r="T21">
-        <v>0.0162259831566318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.258577666666667</v>
-      </c>
-      <c r="H22">
-        <v>6.775733000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.127870268462658</v>
-      </c>
-      <c r="J22">
-        <v>0.1454828729464925</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.3675875</v>
-      </c>
-      <c r="N22">
-        <v>0.735175</v>
-      </c>
-      <c r="O22">
-        <v>0.0828918934338413</v>
-      </c>
-      <c r="P22">
-        <v>0.0683447967221643</v>
-      </c>
-      <c r="Q22">
-        <v>0.8302249180458335</v>
-      </c>
-      <c r="R22">
-        <v>4.981349508275001</v>
-      </c>
-      <c r="S22">
-        <v>0.01059940866676333</v>
-      </c>
-      <c r="T22">
-        <v>0.009942997378084488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.258577666666667</v>
-      </c>
-      <c r="H23">
-        <v>6.775733000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.127870268462658</v>
-      </c>
-      <c r="J23">
-        <v>0.1454828729464925</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.9439833333333333</v>
-      </c>
-      <c r="N23">
-        <v>2.83195</v>
-      </c>
-      <c r="O23">
-        <v>0.2128705842010105</v>
-      </c>
-      <c r="P23">
-        <v>0.2632693536604661</v>
-      </c>
-      <c r="Q23">
-        <v>2.132059674372222</v>
-      </c>
-      <c r="R23">
-        <v>19.18853706935</v>
-      </c>
-      <c r="S23">
-        <v>0.02721981874958606</v>
-      </c>
-      <c r="T23">
-        <v>0.0383011819292908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.258577666666667</v>
-      </c>
-      <c r="H24">
-        <v>6.775733000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.127870268462658</v>
-      </c>
-      <c r="J24">
-        <v>0.1454828729464925</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.1791815</v>
-      </c>
-      <c r="N24">
-        <v>4.358363</v>
-      </c>
-      <c r="O24">
-        <v>0.4914108359805446</v>
-      </c>
-      <c r="P24">
-        <v>0.4051707869233885</v>
-      </c>
-      <c r="Q24">
-        <v>4.921850667513167</v>
-      </c>
-      <c r="R24">
-        <v>29.531104005079</v>
-      </c>
-      <c r="S24">
-        <v>0.06283683552229144</v>
-      </c>
-      <c r="T24">
-        <v>0.05894541011560574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.258577666666667</v>
-      </c>
-      <c r="H25">
-        <v>6.775733000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.127870268462658</v>
-      </c>
-      <c r="J25">
-        <v>0.1454828729464925</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N25">
-        <v>1.640527</v>
-      </c>
-      <c r="O25">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P25">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q25">
-        <v>1.235085881254556</v>
-      </c>
-      <c r="R25">
-        <v>11.115772931291</v>
-      </c>
-      <c r="S25">
-        <v>0.01576823305277359</v>
-      </c>
-      <c r="T25">
-        <v>0.02218758208545831</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.258577666666667</v>
-      </c>
-      <c r="H26">
-        <v>6.775733000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.127870268462658</v>
-      </c>
-      <c r="J26">
-        <v>0.1454828729464925</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.190839</v>
-      </c>
-      <c r="O26">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P26">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q26">
-        <v>0.8965341233318891</v>
-      </c>
-      <c r="R26">
-        <v>8.068807109987</v>
-      </c>
-      <c r="S26">
-        <v>0.0114459724712436</v>
-      </c>
-      <c r="T26">
-        <v>0.01610570143805319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4.499161</v>
-      </c>
-      <c r="H27">
-        <v>13.497483</v>
-      </c>
-      <c r="I27">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="J27">
-        <v>0.2898066680588569</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.3675875</v>
-      </c>
-      <c r="N27">
-        <v>0.735175</v>
-      </c>
-      <c r="O27">
-        <v>0.0828918934338413</v>
-      </c>
-      <c r="P27">
-        <v>0.0683447967221643</v>
-      </c>
-      <c r="Q27">
-        <v>1.6538353440875</v>
-      </c>
-      <c r="R27">
-        <v>9.923012064525</v>
-      </c>
-      <c r="S27">
-        <v>0.02111437069460834</v>
-      </c>
-      <c r="T27">
-        <v>0.01980677781721032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4.499161</v>
-      </c>
-      <c r="H28">
-        <v>13.497483</v>
-      </c>
-      <c r="I28">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="J28">
-        <v>0.2898066680588569</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.9439833333333333</v>
-      </c>
-      <c r="N28">
-        <v>2.83195</v>
-      </c>
-      <c r="O28">
-        <v>0.2128705842010105</v>
-      </c>
-      <c r="P28">
-        <v>0.2632693536604661</v>
-      </c>
-      <c r="Q28">
-        <v>4.247132997983333</v>
-      </c>
-      <c r="R28">
-        <v>38.22419698185</v>
-      </c>
-      <c r="S28">
-        <v>0.05422277424975557</v>
-      </c>
-      <c r="T28">
-        <v>0.07629721418634851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>4.499161</v>
-      </c>
-      <c r="H29">
-        <v>13.497483</v>
-      </c>
-      <c r="I29">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="J29">
-        <v>0.2898066680588569</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.1791815</v>
-      </c>
-      <c r="N29">
-        <v>4.358363</v>
-      </c>
-      <c r="O29">
-        <v>0.4914108359805446</v>
-      </c>
-      <c r="P29">
-        <v>0.4051707869233885</v>
-      </c>
-      <c r="Q29">
-        <v>9.804488416721499</v>
-      </c>
-      <c r="R29">
-        <v>58.82693050032899</v>
-      </c>
-      <c r="S29">
-        <v>0.1251730431579764</v>
-      </c>
-      <c r="T29">
-        <v>0.1174211957530523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>4.499161</v>
-      </c>
-      <c r="H30">
-        <v>13.497483</v>
-      </c>
-      <c r="I30">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="J30">
-        <v>0.2898066680588569</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N30">
-        <v>1.640527</v>
-      </c>
-      <c r="O30">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P30">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q30">
-        <v>2.460331699282333</v>
-      </c>
-      <c r="R30">
-        <v>22.142985293541</v>
-      </c>
-      <c r="S30">
-        <v>0.03141083888191132</v>
-      </c>
-      <c r="T30">
-        <v>0.04419839329701717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.499161</v>
-      </c>
-      <c r="H31">
-        <v>13.497483</v>
-      </c>
-      <c r="I31">
-        <v>0.2547217806221352</v>
-      </c>
-      <c r="J31">
-        <v>0.2898066680588569</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N31">
-        <v>1.190839</v>
-      </c>
-      <c r="O31">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P31">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q31">
-        <v>1.785925462026333</v>
-      </c>
-      <c r="R31">
-        <v>16.073329158237</v>
-      </c>
-      <c r="S31">
-        <v>0.02280075363788368</v>
-      </c>
-      <c r="T31">
-        <v>0.03208308700522858</v>
+        <v>0.08344861691774065</v>
       </c>
     </row>
   </sheetData>
